--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margretsaniel/Documents/County-Flood-Control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FED1EF5A-39BE-8E4D-87FB-7A2925531022}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{85DB47CB-9C1F-B04A-94FD-5088E0E0D547}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="720" windowWidth="25440" windowHeight="14480"/>
+    <workbookView xWindow="4040" yWindow="460" windowWidth="21560" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="160">
   <si>
     <t>address</t>
   </si>
@@ -480,6 +480,27 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>langley</t>
+  </si>
+  <si>
+    <t>sandbar estates</t>
+  </si>
+  <si>
+    <t>hot wells</t>
+  </si>
+  <si>
+    <t>bamwood</t>
+  </si>
+  <si>
+    <t>grantwood</t>
+  </si>
+  <si>
+    <t>bramley</t>
+  </si>
+  <si>
+    <t>crest haven</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1346,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1397,7 +1418,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J2" t="str">
-        <f>VLOOKUP(E2,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E2,Region!A:C,3,FALSE)</f>
         <v>Northeast</v>
       </c>
     </row>
@@ -1430,7 +1451,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J3" t="str">
-        <f>VLOOKUP(E3,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E3,Region!A:C,3,FALSE)</f>
         <v>Northeast</v>
       </c>
     </row>
@@ -1463,7 +1484,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J4" t="str">
-        <f>VLOOKUP(E4,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E4,Region!A:C,3,FALSE)</f>
         <v>Northeast</v>
       </c>
     </row>
@@ -1496,7 +1517,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J5" t="str">
-        <f>VLOOKUP(E5,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E5,Region!A:C,3,FALSE)</f>
         <v>Northeast</v>
       </c>
     </row>
@@ -1529,7 +1550,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J6" t="str">
-        <f>VLOOKUP(E6,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E6,Region!A:C,3,FALSE)</f>
         <v>Northeast</v>
       </c>
     </row>
@@ -1562,7 +1583,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J7" t="str">
-        <f>VLOOKUP(E7,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E7,Region!A:C,3,FALSE)</f>
         <v>Northeast</v>
       </c>
     </row>
@@ -1595,7 +1616,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J8" t="str">
-        <f>VLOOKUP(E8,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E8,Region!A:C,3,FALSE)</f>
         <v>Northeast</v>
       </c>
     </row>
@@ -1628,7 +1649,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J9" t="str">
-        <f>VLOOKUP(E9,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E9,Region!A:C,3,FALSE)</f>
         <v>Northeast</v>
       </c>
     </row>
@@ -1661,7 +1682,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J10" t="str">
-        <f>VLOOKUP(E10,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E10,Region!A:C,3,FALSE)</f>
         <v>Northeast</v>
       </c>
     </row>
@@ -1694,7 +1715,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J11" t="str">
-        <f>VLOOKUP(E11,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E11,Region!A:C,3,FALSE)</f>
         <v>Northeast</v>
       </c>
     </row>
@@ -1727,7 +1748,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J12" t="str">
-        <f>VLOOKUP(E12,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E12,Region!A:C,3,FALSE)</f>
         <v>Northeast</v>
       </c>
     </row>
@@ -1760,7 +1781,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J13" t="str">
-        <f>VLOOKUP(E13,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E13,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -1793,7 +1814,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J14" t="str">
-        <f>VLOOKUP(E14,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E14,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -1826,7 +1847,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J15" t="str">
-        <f>VLOOKUP(E15,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E15,Region!A:C,3,FALSE)</f>
         <v>Northeast</v>
       </c>
     </row>
@@ -1859,7 +1880,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J16" t="str">
-        <f>VLOOKUP(E16,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E16,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -1892,7 +1913,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J17" t="str">
-        <f>VLOOKUP(E17,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E17,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -1925,7 +1946,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J18" t="str">
-        <f>VLOOKUP(E18,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E18,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -1958,7 +1979,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J19" t="str">
-        <f>VLOOKUP(E19,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E19,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -1991,7 +2012,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J20" t="str">
-        <f>VLOOKUP(E20,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E20,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2024,7 +2045,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J21" t="str">
-        <f>VLOOKUP(E21,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E21,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2057,7 +2078,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J22" t="str">
-        <f>VLOOKUP(E22,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E22,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2090,7 +2111,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J23" t="str">
-        <f>VLOOKUP(E23,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E23,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2123,7 +2144,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J24" t="str">
-        <f>VLOOKUP(E24,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E24,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2156,7 +2177,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J25" t="str">
-        <f>VLOOKUP(E25,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E25,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2189,7 +2210,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J26" t="str">
-        <f>VLOOKUP(E26,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E26,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2222,7 +2243,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J27" t="str">
-        <f>VLOOKUP(E27,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E27,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2255,7 +2276,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J28" t="str">
-        <f>VLOOKUP(E28,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E28,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2288,7 +2309,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J29" t="str">
-        <f>VLOOKUP(E29,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E29,Region!A:C,3,FALSE)</f>
         <v>Northeast</v>
       </c>
     </row>
@@ -2321,7 +2342,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J30" t="str">
-        <f>VLOOKUP(E30,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E30,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2354,7 +2375,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J31" t="str">
-        <f>VLOOKUP(E31,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E31,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2387,7 +2408,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J32" t="str">
-        <f>VLOOKUP(E32,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E32,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2420,7 +2441,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J33" t="str">
-        <f>VLOOKUP(E33,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E33,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2453,7 +2474,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J34" t="str">
-        <f>VLOOKUP(E34,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E34,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2486,7 +2507,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J35" t="str">
-        <f>VLOOKUP(E35,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E35,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2519,7 +2540,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J36" t="str">
-        <f>VLOOKUP(E36,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E36,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2552,7 +2573,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J37" t="str">
-        <f>VLOOKUP(E37,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E37,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2585,7 +2606,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J38" t="str">
-        <f>VLOOKUP(E38,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E38,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2618,7 +2639,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J39" t="str">
-        <f>VLOOKUP(E39,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E39,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2651,7 +2672,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J40" t="str">
-        <f>VLOOKUP(E40,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E40,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2684,7 +2705,7 @@
         <v>43653.939122592594</v>
       </c>
       <c r="J41" t="str">
-        <f>VLOOKUP(E41,Region!A:B,2,FALSE)</f>
+        <f>VLOOKUP(E41,Region!A:C,3,FALSE)</f>
         <v>Northwest</v>
       </c>
     </row>
@@ -2695,247 +2716,414 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>77050</v>
+      </c>
+      <c r="C2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>77338</v>
+      </c>
+      <c r="C3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>77032</v>
+      </c>
+      <c r="C4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>129</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>77032</v>
+      </c>
+      <c r="C5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>77039</v>
+      </c>
+      <c r="C6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>77032</v>
+      </c>
+      <c r="C7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>77396</v>
+      </c>
+      <c r="C8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>77429</v>
+      </c>
+      <c r="C9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>77068</v>
+      </c>
+      <c r="C10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>77037</v>
+      </c>
+      <c r="C11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>101</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>77070</v>
+      </c>
+      <c r="C12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>131</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>77429</v>
+      </c>
+      <c r="C13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>132</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>77429</v>
+      </c>
+      <c r="C14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>133</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>77040</v>
+      </c>
+      <c r="C15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>134</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>77040</v>
+      </c>
+      <c r="C16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>135</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>77088</v>
+      </c>
+      <c r="C17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>136</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>77018</v>
+      </c>
+      <c r="C18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>137</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>77080</v>
+      </c>
+      <c r="C19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>138</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>77080</v>
+      </c>
+      <c r="C20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>139</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>77015</v>
+      </c>
+      <c r="C21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>140</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>77547</v>
+      </c>
+      <c r="C22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>141</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>77074</v>
+      </c>
+      <c r="C23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>142</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>77562</v>
+      </c>
+      <c r="C24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>143</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>77530</v>
+      </c>
+      <c r="C25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>144</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>77505</v>
+      </c>
+      <c r="C26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>145</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>77571</v>
+      </c>
+      <c r="C27" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>146</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>77089</v>
+      </c>
+      <c r="C28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>77092</v>
+      </c>
+      <c r="C29" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30">
+        <v>77093</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31">
+        <v>77562</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32">
+        <v>77433</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33">
+        <v>77090</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34">
+        <v>77429</v>
+      </c>
+      <c r="C34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35">
+        <v>77503</v>
+      </c>
+      <c r="C35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36">
+        <v>77505</v>
+      </c>
+      <c r="C36" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
